--- a/Performance Testing.xlsx
+++ b/Performance Testing.xlsx
@@ -339,6 +339,3904 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Comparison - 3 implentations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.94E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1871999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3522999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58199100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4001760000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.6818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>918.78635999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF51-4245-8FCE-FE8EAE3EA55B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>pthread (6 threads)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5660000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1035E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0141000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15452299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1780680000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.376015000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298.75081399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF51-4245-8FCE-FE8EAE3EA55B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>OMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.627E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9880000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.591E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5850000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9840000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7790000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3675E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.153836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9982930000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.981470000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312.575827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF51-4245-8FCE-FE8EAE3EA55B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438337600"/>
+        <c:axId val="438331696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438337600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438331696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="438331696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438337600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pthread comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by number of threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>6 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5660000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1035E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0141000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15452299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1780680000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.376015000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298.75081399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9195-4FFA-94DD-716B06E305EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>12 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.2900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4090000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5179E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9731E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14475299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0929630000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.353803999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>314.23306400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9195-4FFA-94DD-716B06E305EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>24 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8519999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3684E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.743E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13952000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2452200000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.929046999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>319.352711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9195-4FFA-94DD-716B06E305EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312220968"/>
+        <c:axId val="312221624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312220968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312221624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312221624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312220968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pthread vs. OMP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pthread (6 threads)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5660000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1035E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0141000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15452299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1780680000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.376015000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298.75081399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A61-4E3B-8295-5D43631AA52D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.627E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9880000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.591E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5850000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9840000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7790000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3675E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.153836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9982930000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.981470000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312.575827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A61-4E3B-8295-5D43631AA52D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="320906224"/>
+        <c:axId val="320899664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="320906224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320899664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320899664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320906224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB9ABFF-2618-487A-B8CC-6223DD2A97DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34125E1C-8B20-4E44-9B1A-81FF57296877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57367CD6-C57A-45AB-B052-EA931BE22137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -639,7 +4537,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +5105,9 @@
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="16">
+        <v>918.78635999999995</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
         <f>2^12</f>
@@ -1270,5 +5170,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Performance Testing.xlsx
+++ b/Performance Testing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Documents\GitHub\MatMul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Dropbox\CSC 410 Parallel Computing\MatMul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="11895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,12 +302,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,6 +316,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +374,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Comparison - 3 implentations</a:t>
+              <a:t>Time Comparison - 3 implementations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4536,629 +4536,629 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="10" style="4"/>
-    <col min="4" max="4" width="1.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10" style="4"/>
-    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10" style="4"/>
-    <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4"/>
-    <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.28515625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10" style="4"/>
-    <col min="15" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="10" style="4"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10" style="2"/>
+    <col min="4" max="4" width="1.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2"/>
+    <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1.0399999999999999E-4</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <v>2.0699999999999999E-4</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9">
+      <c r="M3" s="6"/>
+      <c r="N3" s="7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="8">
         <v>2.627E-3</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>1.7100000000000001E-4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12">
+      <c r="M4" s="9"/>
+      <c r="N4" s="10">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>4.9880000000000002E-3</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>1.46E-4</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12">
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>3.2200000000000002E-4</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12">
+      <c r="M5" s="9"/>
+      <c r="N5" s="10">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>2.591E-3</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>1.94E-4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>1.73E-4</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>1.75E-4</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <v>2.72E-4</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12">
+      <c r="M6" s="9"/>
+      <c r="N6" s="10">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>9.8200000000000002E-4</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>4.2099999999999999E-4</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>3.6099999999999999E-4</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12">
+      <c r="J7" s="9"/>
+      <c r="K7" s="10">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>2.9840000000000001E-3</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>4.3579999999999999E-3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>3.5660000000000002E-3</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>3.4090000000000001E-3</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12">
+      <c r="J8" s="9"/>
+      <c r="K8" s="10">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>1.8519999999999999E-3</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12">
+      <c r="M8" s="9"/>
+      <c r="N8" s="10">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>5.7790000000000003E-3</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>2.1871999999999999E-2</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>1.1035E-2</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>1.5179E-2</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>1.3684E-2</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12">
+      <c r="M9" s="9"/>
+      <c r="N9" s="10">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>1.3675E-2</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>9.3522999999999995E-2</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>4.0141000000000003E-2</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>2.9731E-2</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12">
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>4.743E-2</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12">
+      <c r="M10" s="9"/>
+      <c r="N10" s="10">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>3.6287E-2</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>0.58199100000000004</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>0.15452299999999999</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>0.14475299999999999</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12">
+      <c r="J11" s="9"/>
+      <c r="K11" s="10">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>0.13952000000000001</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12">
+      <c r="M11" s="9"/>
+      <c r="N11" s="10">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>0.153836</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>5.4001760000000001</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <v>2.1780680000000001</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>2.0929630000000001</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12">
+      <c r="J12" s="9"/>
+      <c r="K12" s="10">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>2.2452200000000002</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12">
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>1.9982930000000001</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>106.6818</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>33.376015000000002</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>32.353803999999997</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12">
+      <c r="J13" s="9"/>
+      <c r="K13" s="10">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>32.929046999999997</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12">
+      <c r="M13" s="9"/>
+      <c r="N13" s="10">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>31.981470000000002</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>918.78635999999995</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>298.75081399999999</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>314.23306400000001</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <v>319.352711</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15">
+      <c r="M14" s="12"/>
+      <c r="N14" s="13">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="14">
         <v>312.575827</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
